--- a/DDF/Phase2.1/TY_13/TY_13.xlsx
+++ b/DDF/Phase2.1/TY_13/TY_13.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Bimbo Mobile\DDF\Phase2.1\TY_13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Tax and Discount edited in Final merge folder\Bimbo Mobile-TY-02022022-1456\Bimbo Mobile-TY\DDF\Phase2.1\TY_13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3375" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Inv Summary (Only Inv &amp; Rep)" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="InvoiceSplitInvoiceReplacement" sheetId="6" r:id="rId6"/>
     <sheet name="InvoiceSplitOnlyRepandPB" sheetId="7" r:id="rId7"/>
     <sheet name="InvoiceSplitOnlyPB" sheetId="8" r:id="rId8"/>
+    <sheet name="VanloadAcceptance" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="241">
   <si>
     <t>TCNO</t>
   </si>
@@ -652,18 +653,6 @@
   </si>
   <si>
     <t>TC51</t>
-  </si>
-  <si>
-    <t>Default Invoice-</t>
-  </si>
-  <si>
-    <t>Default ProdBuy-</t>
-  </si>
-  <si>
-    <t>Invoice Split-</t>
-  </si>
-  <si>
-    <t>ProdBuy Split-</t>
   </si>
   <si>
     <t>Expected Boolean Value</t>
@@ -746,6 +735,27 @@
   </si>
   <si>
     <t>TC_ID_013</t>
+  </si>
+  <si>
+    <t>VLA_TC_112</t>
+  </si>
+  <si>
+    <t>Vanload Acceptance</t>
+  </si>
+  <si>
+    <t>Expected Text 1</t>
+  </si>
+  <si>
+    <t>Vanload Rejection</t>
+  </si>
+  <si>
+    <t>Default ProdBuy</t>
+  </si>
+  <si>
+    <t>Default Invoice</t>
+  </si>
+  <si>
+    <t>ProdBuy Split</t>
   </si>
 </sst>
 </file>
@@ -2180,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2257,6 +2267,9 @@
       <c r="C5" t="s">
         <v>113</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
@@ -2565,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2590,13 +2603,13 @@
         <v>12</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2667,7 +2680,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
         <v>160</v>
@@ -2676,10 +2689,10 @@
         <v>160</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -2687,7 +2700,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>160</v>
@@ -2696,10 +2709,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F9" s="9" t="b">
         <v>1</v>
@@ -2715,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2745,13 +2758,13 @@
         <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3142,13 +3155,13 @@
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D31">
         <v>123456</v>
@@ -3160,18 +3173,18 @@
         <v>1</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D32" s="9">
         <v>123456</v>
@@ -3183,18 +3196,18 @@
         <v>1</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30">
       <c r="A33" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D33" s="9">
         <v>123456</v>
@@ -3206,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30">
@@ -3217,7 +3230,7 @@
         <v>174</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D34" s="9">
         <v>123456</v>
@@ -3229,18 +3242,18 @@
         <v>1</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30">
       <c r="A35" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D35" s="9">
         <v>123456</v>
@@ -3252,18 +3265,18 @@
         <v>1</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30">
       <c r="A36" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D36" s="9">
         <v>123456</v>
@@ -3275,18 +3288,18 @@
         <v>1</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30">
       <c r="A37" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D37" s="9">
         <v>123456</v>
@@ -3298,18 +3311,18 @@
         <v>1</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30">
       <c r="A38" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D38" s="9">
         <v>123456</v>
@@ -3321,18 +3334,18 @@
         <v>1</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30">
       <c r="A39" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D39" s="9">
         <v>123456</v>
@@ -3344,18 +3357,18 @@
         <v>1</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30">
       <c r="A40" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D40" s="9">
         <v>123456</v>
@@ -3367,18 +3380,18 @@
         <v>1</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30">
       <c r="A41" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D41" s="9">
         <v>123456</v>
@@ -3390,18 +3403,18 @@
         <v>1</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30">
       <c r="A42" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D42" s="9">
         <v>123456</v>
@@ -3413,18 +3426,18 @@
         <v>1</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30">
       <c r="A43" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D43" s="9">
         <v>123456</v>
@@ -3436,18 +3449,18 @@
         <v>1</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30">
       <c r="A44" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D44" s="9">
         <v>123456</v>
@@ -3459,18 +3472,18 @@
         <v>1</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30">
       <c r="A45" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D45" s="9">
         <v>123456</v>
@@ -3482,18 +3495,18 @@
         <v>1</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30">
       <c r="A46" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D46" s="9">
         <v>123456</v>
@@ -3505,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3516,10 +3529,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3530,7 +3543,7 @@
     <col min="4" max="4" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
         <v>101</v>
       </c>
@@ -3540,11 +3553,8 @@
       <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -3552,21 +3562,15 @@
         <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -3574,21 +3578,15 @@
         <v>174</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="C5" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -3596,21 +3594,15 @@
         <v>174</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="C7" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -3618,21 +3610,15 @@
         <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -3640,21 +3626,15 @@
         <v>174</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="C11" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -3662,21 +3642,15 @@
         <v>174</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D12" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="C13" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -3684,18 +3658,12 @@
         <v>174</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="C15" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="9" t="b">
-        <v>1</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3708,7 +3676,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3730,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3741,7 +3709,7 @@
         <v>174</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -3755,7 +3723,7 @@
         <v>174</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -3769,10 +3737,63 @@
         <v>174</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/DDF/Phase2.1/TY_13/TY_13.xlsx
+++ b/DDF/Phase2.1/TY_13/TY_13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Inv Summary (Only Inv &amp; Rep)" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="252">
   <si>
     <t>TCNO</t>
   </si>
@@ -756,6 +756,39 @@
   </si>
   <si>
     <t>ProdBuy Split</t>
+  </si>
+  <si>
+    <t>Data3</t>
+  </si>
+  <si>
+    <t>ONSITE INV STATUS: SUCCESS</t>
+  </si>
+  <si>
+    <t>TC_ID_122</t>
+  </si>
+  <si>
+    <t>ExtraInvoice-1</t>
+  </si>
+  <si>
+    <t>ExtraInvoice-2</t>
+  </si>
+  <si>
+    <t>ExtraInvoice-3</t>
+  </si>
+  <si>
+    <t>ExtraInvoice-4</t>
+  </si>
+  <si>
+    <t>ExtraInvoice-5</t>
+  </si>
+  <si>
+    <t>TC_ID_124</t>
+  </si>
+  <si>
+    <t>TC_ID_132</t>
+  </si>
+  <si>
+    <t>TC_ID_134, TC_ID_135</t>
   </si>
 </sst>
 </file>
@@ -765,7 +798,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,6 +831,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -852,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,6 +922,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2576,10 +2619,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2718,6 +2761,74 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2726,10 +2837,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2744,7 +2855,7 @@
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>101</v>
       </c>
@@ -2766,8 +2877,11 @@
       <c r="G1" s="9" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2778,7 +2892,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2789,7 +2903,7 @@
         <v>1234567890</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -2803,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -2817,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
         <v>64</v>
       </c>
@@ -2831,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
@@ -2845,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
@@ -2859,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
@@ -2873,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>181</v>
       </c>
@@ -2884,7 +2998,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -2895,7 +3009,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>183</v>
       </c>
@@ -2909,7 +3023,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>184</v>
       </c>
@@ -2923,7 +3037,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -2937,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -2951,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
         <v>187</v>
       </c>
@@ -2966,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>188</v>
       </c>
@@ -2981,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>186</v>
       </c>
@@ -2996,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -3010,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -3024,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>189</v>
       </c>
@@ -3038,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>190</v>
       </c>
@@ -3052,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>191</v>
       </c>
@@ -3066,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>192</v>
       </c>
@@ -3080,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -3091,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="9" t="s">
         <v>48</v>
       </c>
@@ -3104,7 +3218,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -3117,7 +3231,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -3131,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -3142,7 +3256,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -3153,7 +3267,7 @@
         <v>1234567890</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30">
+    <row r="31" spans="1:8" ht="30">
       <c r="A31" t="s">
         <v>208</v>
       </c>
@@ -3175,8 +3289,11 @@
       <c r="G31" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="30">
+      <c r="H31" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30">
       <c r="A32" t="s">
         <v>214</v>
       </c>
@@ -3198,8 +3315,11 @@
       <c r="G32" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="30">
+      <c r="H32" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30">
       <c r="A33" s="9" t="s">
         <v>215</v>
       </c>
@@ -3221,8 +3341,11 @@
       <c r="G33" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="30">
+      <c r="H33" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30">
       <c r="A34" s="9" t="s">
         <v>81</v>
       </c>
@@ -3244,8 +3367,11 @@
       <c r="G34" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="30">
+      <c r="H34" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30">
       <c r="A35" s="9" t="s">
         <v>216</v>
       </c>
@@ -3267,8 +3393,11 @@
       <c r="G35" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="30">
+      <c r="H35" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30">
       <c r="A36" s="9" t="s">
         <v>217</v>
       </c>
@@ -3290,8 +3419,11 @@
       <c r="G36" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="30">
+      <c r="H36" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30">
       <c r="A37" s="9" t="s">
         <v>218</v>
       </c>
@@ -3313,8 +3445,11 @@
       <c r="G37" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="30">
+      <c r="H37" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30">
       <c r="A38" s="9" t="s">
         <v>219</v>
       </c>
@@ -3336,8 +3471,11 @@
       <c r="G38" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="30">
+      <c r="H38" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30">
       <c r="A39" s="9" t="s">
         <v>220</v>
       </c>
@@ -3359,8 +3497,11 @@
       <c r="G39" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="30">
+      <c r="H39" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30">
       <c r="A40" s="9" t="s">
         <v>221</v>
       </c>
@@ -3382,8 +3523,11 @@
       <c r="G40" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="30">
+      <c r="H40" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30">
       <c r="A41" s="9" t="s">
         <v>222</v>
       </c>
@@ -3405,8 +3549,11 @@
       <c r="G41" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="30">
+      <c r="H41" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30">
       <c r="A42" s="9" t="s">
         <v>223</v>
       </c>
@@ -3428,8 +3575,11 @@
       <c r="G42" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="30">
+      <c r="H42" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30">
       <c r="A43" s="9" t="s">
         <v>224</v>
       </c>
@@ -3451,8 +3601,11 @@
       <c r="G43" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="30">
+      <c r="H43" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30">
       <c r="A44" s="9" t="s">
         <v>225</v>
       </c>
@@ -3474,8 +3627,11 @@
       <c r="G44" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="30">
+      <c r="H44" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30">
       <c r="A45" s="9" t="s">
         <v>226</v>
       </c>
@@ -3497,8 +3653,11 @@
       <c r="G45" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="30">
+      <c r="H45" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30">
       <c r="A46" s="9" t="s">
         <v>227</v>
       </c>
@@ -3519,6 +3678,9 @@
       </c>
       <c r="G46" s="9" t="s">
         <v>210</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3531,7 +3693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
